--- a/Excel Files/Scenario 17/Scenario 17_TC053/expectedCustomerOrder.xlsx
+++ b/Excel Files/Scenario 17/Scenario 17_TC053/expectedCustomerOrder.xlsx
@@ -324,7 +324,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>cs1701-2310001</t>
+    <t>cs1704-2310001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -336,18 +336,48 @@
     <t>Ten Day</t>
   </si>
   <si>
-    <t>21 Oct 2023 - 31 Oct 2023</t>
+    <t>01 Nov 2023 - 10 Nov 2023</t>
   </si>
   <si>
     <t>Sc17 Free - 30 Days</t>
   </si>
   <si>
-    <t>01 Nov ~ 10 Nov</t>
+    <t>11 Nov ~ 20 Nov</t>
   </si>
   <si>
     <t>FC Qty 1</t>
   </si>
   <si>
+    <t>scenario1720230604001</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-001</t>
+  </si>
+  <si>
+    <t>b00001</t>
+  </si>
+  <si>
+    <t>ss1704-2310001</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>scenario1720230604002</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-002</t>
+  </si>
+  <si>
+    <t>b00002</t>
+  </si>
+  <si>
     <t>scenario1720230604005</t>
   </si>
   <si>
@@ -357,40 +387,19 @@
     <t>b00004</t>
   </si>
   <si>
-    <t>ss1701-2310001</t>
-  </si>
-  <si>
     <t>ROL</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>scenario1720230604002</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-002</t>
-  </si>
-  <si>
-    <t>b00002</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>scenario1720230604001</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-001</t>
-  </si>
-  <si>
-    <t>b00001</t>
+    <t>scenario1720230604004</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-004</t>
+  </si>
+  <si>
+    <t>BOX</t>
   </si>
   <si>
     <t>scenario1720230604003</t>
@@ -405,22 +414,13 @@
     <t>CRT</t>
   </si>
   <si>
-    <t>scenario1720230604004</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-004</t>
-  </si>
-  <si>
-    <t>BOX</t>
-  </si>
-  <si>
     <t>AUTHORIZATION:</t>
   </si>
   <si>
     <t>X Electronically Approved: Signature Available upon Request</t>
   </si>
   <si>
-    <t>CO No.:cs1701-2310001</t>
+    <t>CO No.:cs1704-2310001</t>
   </si>
 </sst>
 </file>
@@ -9929,7 +9929,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45217.0</v>
+        <v>45224.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45219.0</v>
+        <v>45224.0</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -10100,19 +10100,19 @@
         <v>10.0</v>
       </c>
       <c r="I24" s="42" t="n">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>101</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>100.68</v>
+        <v>9.01</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>0.0</v>
+        <v>10812.0</v>
       </c>
       <c r="N24" s="42" t="n">
         <v>1000.0</v>
@@ -10120,7 +10120,9 @@
       <c r="O24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="42"/>
+      <c r="P24" s="42" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="25" t="s">
@@ -10148,7 +10150,7 @@
         <v>1200.0</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>7.01</v>
@@ -10163,7 +10165,7 @@
         <v>1000.0</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P25" s="42" t="n">
         <v>0.0</v>
@@ -10171,13 +10173,13 @@
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>100</v>
@@ -10192,29 +10194,27 @@
         <v>10.0</v>
       </c>
       <c r="I26" s="42" t="n">
-        <v>1200.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K26" s="47" t="n">
-        <v>9.01</v>
+        <v>100.68</v>
       </c>
       <c r="L26" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M26" s="47" t="n">
-        <v>10812.0</v>
+        <v>0.0</v>
       </c>
       <c r="N26" s="42" t="n">
         <v>1000.0</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="P26" s="42" t="n">
-        <v>0.0</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P26" s="42"/>
     </row>
     <row r="27">
       <c r="B27" s="25" t="s">
@@ -10224,7 +10224,7 @@
         <v>113</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>100</v>
@@ -10239,25 +10239,25 @@
         <v>10.0</v>
       </c>
       <c r="I27" s="42" t="n">
-        <v>900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27" s="47" t="n">
-        <v>10.01</v>
+        <v>10.0</v>
       </c>
       <c r="L27" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M27" s="47" t="n">
-        <v>9009.0</v>
+        <v>15000.0</v>
       </c>
       <c r="N27" s="42" t="n">
-        <v>800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P27" s="42" t="n">
         <v>0.0</v>
@@ -10265,13 +10265,13 @@
     </row>
     <row r="28">
       <c r="B28" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="D28" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>100</v>
@@ -10286,25 +10286,25 @@
         <v>10.0</v>
       </c>
       <c r="I28" s="42" t="n">
-        <v>1500.0</v>
+        <v>900.0</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>118</v>
       </c>
       <c r="K28" s="47" t="n">
-        <v>10.0</v>
+        <v>10.01</v>
       </c>
       <c r="L28" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M28" s="47" t="n">
-        <v>15000.0</v>
+        <v>9009.0</v>
       </c>
       <c r="N28" s="42" t="n">
-        <v>1600.0</v>
+        <v>800.0</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P28" s="42" t="n">
         <v>0.0</v>
@@ -10506,7 +10506,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="39"/>
       <c r="K7" s="2" t="n">
-        <v>45219.0</v>
+        <v>45224.0</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>45240.0</v>
@@ -10518,7 +10518,7 @@
         <v>45270.0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45219.0</v>
+        <v>45224.0</v>
       </c>
       <c r="P7" s="2" t="n">
         <v>45245.0</v>
@@ -10547,16 +10547,22 @@
         <v>10.0</v>
       </c>
       <c r="I8" s="42" t="n">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="K8" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="42" t="n">
+        <v>1200.0</v>
+      </c>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="O8" s="42" t="n">
+        <v>1200.0</v>
+      </c>
       <c r="P8" s="42"/>
     </row>
     <row r="9">
@@ -10585,7 +10591,7 @@
         <v>1200.0</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K9" s="42" t="n">
         <v>0.0</v>
@@ -10602,13 +10608,13 @@
     </row>
     <row r="10">
       <c r="B10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>100</v>
@@ -10623,22 +10629,16 @@
         <v>10.0</v>
       </c>
       <c r="I10" s="42" t="n">
-        <v>1200.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="42" t="n">
-        <v>1200.0</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="42" t="n">
-        <v>1200.0</v>
-      </c>
+      <c r="O10" s="42"/>
       <c r="P10" s="42"/>
     </row>
     <row r="11">
@@ -10649,7 +10649,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>100</v>
@@ -10664,35 +10664,35 @@
         <v>10.0</v>
       </c>
       <c r="I11" s="42" t="n">
-        <v>900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K11" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="N11" s="42" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="P11" s="42" t="n">
         <v>100.0</v>
       </c>
-      <c r="O11" s="42" t="n">
-        <v>900.0</v>
-      </c>
-      <c r="P11" s="42"/>
     </row>
     <row r="12">
       <c r="B12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>100</v>
@@ -10707,25 +10707,25 @@
         <v>10.0</v>
       </c>
       <c r="I12" s="42" t="n">
-        <v>1500.0</v>
+        <v>900.0</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K12" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="42" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="N12" s="42"/>
+        <v>800.0</v>
+      </c>
+      <c r="N12" s="42" t="n">
+        <v>100.0</v>
+      </c>
       <c r="O12" s="42" t="n">
-        <v>1400.0</v>
-      </c>
-      <c r="P12" s="42" t="n">
-        <v>100.0</v>
-      </c>
+        <v>900.0</v>
+      </c>
+      <c r="P12" s="42"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" deleteRows="0"/>
